--- a/downloads/procv-nd-como-corrigir-erro-nd-procv.xlsx
+++ b/downloads/procv-nd-como-corrigir-erro-nd-procv.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricar\OneDrive\Excel na Web\BACKUP ERREDOZE\POSTS\29 - PROCV ND -COMO CORRIGIR O ERRO ND DE UMA PROCV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricar\Documents\websites\excelnaweb.github.io\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -294,6 +294,129 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>41413</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>231912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>605873</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>14947</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Agrupar 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Clique aqui para acessar"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AFFC93B-A3B9-48F1-9AE5-A7D4CABD6C3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5814391" y="231912"/>
+          <a:ext cx="3629025" cy="3311426"/>
+          <a:chOff x="5419724" y="628650"/>
+          <a:chExt cx="3629025" cy="3311426"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="Imagem 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9D8FC7A-E3A2-47D2-A192-D74096F46273}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5419724" y="1104900"/>
+            <a:ext cx="3629025" cy="2835176"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Retângulo 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9F02F45-10E6-4E46-84BE-C32148AA5359}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5429250" y="628650"/>
+            <a:ext cx="3600450" cy="466725"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="3175"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1400" b="1"/>
+              <a:t>DICA DE 1 MILHÃO DE DÓLARES</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -370,6 +493,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -405,6 +545,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -856,11 +1013,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:AC20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -869,7 +1024,7 @@
     <col min="3" max="3" width="15.140625" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" customWidth="1"/>
     <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.140625" style="1"/>
+    <col min="6" max="29" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1066,6 +1221,7 @@
     <hyperlink ref="D7" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/downloads/procv-nd-como-corrigir-erro-nd-procv.xlsx
+++ b/downloads/procv-nd-como-corrigir-erro-nd-procv.xlsx
@@ -239,7 +239,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -276,6 +276,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -292,129 +295,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>41413</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>231912</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>605873</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>14947</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Agrupar 1">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Clique aqui para acessar"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AFFC93B-A3B9-48F1-9AE5-A7D4CABD6C3C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5814391" y="231912"/>
-          <a:ext cx="3629025" cy="3311426"/>
-          <a:chOff x="5419724" y="628650"/>
-          <a:chExt cx="3629025" cy="3311426"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="3" name="Imagem 2">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9D8FC7A-E3A2-47D2-A192-D74096F46273}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5419724" y="1104900"/>
-            <a:ext cx="3629025" cy="2835176"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Retângulo 3">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9F02F45-10E6-4E46-84BE-C32148AA5359}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5429250" y="628650"/>
-            <a:ext cx="3600450" cy="466725"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="3175"/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="1400" b="1"/>
-              <a:t>DICA DE 1 MILHÃO DE DÓLARES</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1015,7 +895,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1112,10 +994,10 @@
         <v>16</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="14"/>
     </row>
     <row r="8" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -1217,11 +1099,13 @@
       <c r="E20" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D7:E7"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
